--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200221.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200221.xlsx
@@ -10487,10 +10487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
@@ -10584,9 +10584,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10608,14 +10652,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10623,7 +10675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10639,69 +10691,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10726,43 +10726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10774,13 +10750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10798,7 +10774,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10810,61 +10858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10876,37 +10870,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10917,41 +10917,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10970,26 +10935,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11017,151 +10969,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11536,8 +11536,8 @@
   <sheetPr/>
   <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16">
-        <v>12670</v>
+        <v>1270</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16">
@@ -13542,14 +13542,14 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G1048576">
-      <formula1>INDIRECT($F31)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13 AM13 AG14 AM14 AG15 AM15 AG16 AM16 AG17 AM17 AG18 AM18 AG19 AM19 AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG28 AM28 AG29:AG1048576 AM29:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29:B30 B31:B1048576">
+      <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 AK2 AE3 AK3 AE4 AK4 AE5 AK5 AE6 AK6 AE7 AK7 AE8 AK8 AE9 AK9 AE10 AK10 AE11 AK11 AE12 AK12 AE13 AK13 AE14 AK14 AE15 AK15 AE16 AK16 AE17 AK17 AE18 AK18 AE19 AK19 AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AE24 AK24 AE25 AK25 AA26 AE26 AK26 AA27 AE27 AK27 AA28 AE28 AK28 AA2:AA3 AA4:AA5 AA6:AA7 AA8:AA9 AA10:AA11 AA12:AA13 AA14:AA15 AA16:AA17 AA18:AA19 AA24:AA25 AA29:AA31 AA32:AA1048576 AE29:AE1048576 AK29:AK1048576">
       <formula1>"手动,自动"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29:B30 B31:B1048576">
-      <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29:H1048576">
       <formula1>INDIRECT($G2)</formula1>
@@ -13560,11 +13560,11 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R2 I3:R3 I4:R4 I5:R5 I6:R6 I7:R7 I8:R8 I9:R9 I10:R10 I11:R11 I12:R12 I13:R13 I14:R14 I15:R15 I16:R16 I17:R17 I18:R18 I19:R19 I20:R20 I21:R21 I22:R22 I23:R23 I24:R24 I25:R25 I26:R26 I27:R27 I28:R28 I29:R29 I30:J30 K30 L30:N30 O30 P30:R30 I31:R1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G1048576">
+      <formula1>INDIRECT($F31)</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29:AC1048576">
       <formula1>"未核查,已核查"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13 AM13 AG14 AM14 AG15 AM15 AG16 AM16 AG17 AM17 AG18 AM18 AG19 AM19 AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG28 AM28 AG29:AG1048576 AM29:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200221.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200221.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="19271" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10571,13 +10571,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -10585,7 +10578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10598,8 +10591,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10607,7 +10638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10622,7 +10653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10637,28 +10668,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -10667,7 +10676,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10681,27 +10690,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10726,13 +10726,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10744,25 +10774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10774,73 +10792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10858,7 +10816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10876,19 +10858,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10900,13 +10894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10946,6 +10946,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10961,11 +10970,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10989,7 +11004,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10997,171 +11012,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11536,8 +11536,8 @@
   <sheetPr/>
   <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -11795,7 +11795,9 @@
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="16">
+        <v>5</v>
+      </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16">
         <v>273</v>
@@ -12161,7 +12163,9 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="16">
+        <v>7</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16">
         <v>139</v>
@@ -12831,7 +12835,9 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="16">
+        <v>4</v>
+      </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16">
         <v>39</v>
@@ -12951,7 +12957,9 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16">
         <v>31</v>
@@ -13133,7 +13141,9 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="16">
+        <v>1</v>
+      </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16">
         <v>26</v>
@@ -13434,7 +13444,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -13542,14 +13552,11 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13 AM13 AG14 AM14 AG15 AM15 AG16 AM16 AG17 AM17 AG18 AM18 AG19 AM19 AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG28 AM28 AG29:AG1048576 AM29:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R2 I3:R3 I4:R4 I5:R5 I6:R6 I7:R7 I8:R8 I9:R9 I10:R10 I11:R11 I12:R12 I13:R13 I14:R14 I15:R15 I16:R16 I17:R17 I18:R18 I19:R19 I20:R20 I21:R21 I22:R22 I23:R23 I24:R24 I25:R25 I26:R26 I27:R27 I28:R28 I29:R29 I30:J30 K30 L30:N30 O30 P30:R30 I31:R1048576">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29:B30 B31:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 AK2 AE3 AK3 AE4 AK4 AE5 AK5 AE6 AK6 AE7 AK7 AE8 AK8 AE9 AK9 AE10 AK10 AE11 AK11 AE12 AK12 AE13 AK13 AE14 AK14 AE15 AK15 AE16 AK16 AE17 AK17 AE18 AK18 AE19 AK19 AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AE24 AK24 AE25 AK25 AA26 AE26 AK26 AA27 AE27 AK27 AA28 AE28 AK28 AA2:AA3 AA4:AA5 AA6:AA7 AA8:AA9 AA10:AA11 AA12:AA13 AA14:AA15 AA16:AA17 AA18:AA19 AA24:AA25 AA29:AA31 AA32:AA1048576 AE29:AE1048576 AK29:AK1048576">
-      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29:H1048576">
       <formula1>INDIRECT($G2)</formula1>
@@ -13557,14 +13564,17 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30:F31 F32:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R2 I3:R3 I4:R4 I5:R5 I6:R6 I7:R7 I8:R8 I9:R9 I10:R10 I11:R11 I12:R12 I13:R13 I14:R14 I15:R15 I16:R16 I17:R17 I18:R18 I19:R19 I20:R20 I21:R21 I22:R22 I23:R23 I24:R24 I25:R25 I26:R26 I27:R27 I28:R28 I29:R29 I30:J30 K30 L30:N30 O30 P30:R30 I31:R1048576">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 AK2 AE3 AK3 AE4 AK4 AE5 AK5 AE6 AK6 AE7 AK7 AE8 AK8 AE9 AK9 AE10 AK10 AE11 AK11 AE12 AK12 AE13 AK13 AE14 AK14 AE15 AK15 AE16 AK16 AE17 AK17 AE18 AK18 AE19 AK19 AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AE24 AK24 AE25 AK25 AA26 AE26 AK26 AA27 AE27 AK27 AA28 AE28 AK28 AA2:AA3 AA4:AA5 AA6:AA7 AA8:AA9 AA10:AA11 AA12:AA13 AA14:AA15 AA16:AA17 AA18:AA19 AA24:AA25 AA29:AA31 AA32:AA1048576 AE29:AE1048576 AK29:AK1048576">
+      <formula1>"手动,自动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13 AM13 AG14 AM14 AG15 AM15 AG16 AM16 AG17 AM17 AG18 AM18 AG19 AM19 AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG28 AM28 AG29:AG1048576 AM29:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G1048576">
       <formula1>INDIRECT($F31)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
